--- a/input/images/tables/dstu2-r4-table.xlsx
+++ b/input/images/tables/dstu2-r4-table.xlsx
@@ -1699,65 +1699,61 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>**Extensions**</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>US Core Observation ADI Documentation Profile</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8.0.0</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sex of patient assigned at birth</t>
+          <t xml:space="preserve">     -</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>US Core Birth Sex Extension</t>
+          <t>US Core ADI DocumentReference Profile</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3.1.1*</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>After version 6.0.0 this extension is no longer a USCDI requirement.</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Argonaut ethnicity Extension</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>US Core Ethnicity Extension</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>3.1.1*</t>
-        </is>
-      </c>
+          <t>**Extensions**</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Argonaut Race Extension</t>
+          <t>Sex of patient assigned at birth</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>US Core Race Extension</t>
+          <t>US Core Birth Sex Extension</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1766,17 +1762,21 @@
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>After version 6.0.0 this extension is no longer a USCDI requirement.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">     -</t>
+          <t>Argonaut ethnicity Extension</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>US Core Direct email Extension</t>
+          <t>US Core Ethnicity Extension</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1790,17 +1790,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">     -</t>
+          <t>Argonaut Race Extension</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>US Core Extension Questionnaire URI</t>
+          <t>US Core Race Extension</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5.0.0</t>
+          <t>3.1.1*</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -1814,12 +1814,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>US Core Gender Identity Extension</t>
+          <t>US Core Direct email Extension</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5.0.0</t>
+          <t>3.1.1*</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -1833,12 +1833,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>US Core Tribal Affiliation Extension</t>
+          <t>US Core Extension Questionnaire URI</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6.0.0</t>
+          <t>5.0.0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>US Core Jurisdiction Extension</t>
+          <t>US Core Gender Identity Extension</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>6.0.0</t>
+          <t>5.0.0</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>US Core USCDI Requirements Extension</t>
+          <t>US Core Tribal Affiliation Extension</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1880,11 +1880,7 @@
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>This extension is only used on US Core Profile StructureDefinition elements</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1894,12 +1890,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>US Core Sex Extension</t>
+          <t>US Core Jurisdiction Extension</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6.1.0</t>
+          <t>6.0.0</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -1908,28 +1904,108 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>US Core USCDI Requirements Extension</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>6.0.0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>This extension is only used on US Core Profile StructureDefinition elements</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>US Core Sex Extension</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>6.1.0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>US Core Medication Adherence Extension</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>7.0.0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t xml:space="preserve">     </t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>US Core Medication Adherence Extension</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>7.0.0</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>US Core Authentication Time Extension</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>8.0.0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>US Core Interpreter Required Extension</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>8.0.0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>\* 3.1.1  *or prior* version of US Core</t>
         </is>

--- a/input/images/tables/dstu2-r4-table.xlsx
+++ b/input/images/tables/dstu2-r4-table.xlsx
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>US Core Interpreter Required Extension</t>
+          <t>US Core Interpreter Needed Extension</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">

--- a/input/images/tables/dstu2-r4-table.xlsx
+++ b/input/images/tables/dstu2-r4-table.xlsx
@@ -1262,7 +1262,11 @@
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>After version 7.0.0 this extension is no longer a USCDI requirement.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1861,7 +1865,11 @@
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>After version 7.0.0 this extension is no longer a USCDI requirement and has been deprecated.</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1941,7 +1949,11 @@
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Substantively redefined in version 8.0.0</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">

--- a/input/images/tables/dstu2-r4-table.xlsx
+++ b/input/images/tables/dstu2-r4-table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dstu2-r4-table.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dstu2-r4-table.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -438,10 +438,15 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Version Deprecated</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Version Retired</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
@@ -465,6 +470,7 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,7 +489,8 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Type changed from CarePlan in DSTU2 to CareTeam in R4</t>
         </is>
@@ -507,6 +514,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -524,12 +532,13 @@
           <t>3.1.1*</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>In version 5.0.0 split US Core Condition Profilee into US Core Condition Encounter Diagnosis Profile and US Core Condition Problems and Health Concerns Profile</t>
         </is>
@@ -552,7 +561,8 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>see above</t>
         </is>
@@ -575,7 +585,8 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>see above</t>
         </is>
@@ -599,6 +610,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -618,6 +630,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -637,6 +650,7 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -656,6 +670,7 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -675,6 +690,7 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -694,6 +710,7 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -713,6 +730,7 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -727,7 +745,8 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>US Core MedicationStatement Profile not defined in 3.1.1*</t>
         </is>
@@ -750,7 +769,8 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>In Version 6.0.0 derived from US Core Observation Clinical Test Result Profile</t>
         </is>
@@ -774,6 +794,7 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -793,6 +814,7 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -812,6 +834,7 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -830,7 +853,8 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -853,7 +877,8 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -876,7 +901,8 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -899,7 +925,8 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -922,7 +949,8 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -945,7 +973,8 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -968,7 +997,8 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -991,7 +1021,8 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -1014,7 +1045,8 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
@@ -1037,7 +1069,8 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>3.1.1* based on the FHIR Vital Signs Profile, 4.0.0+ based on the US Core Vital Signs Profile</t>
         </is>
@@ -1060,7 +1093,8 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>3.1.1* based on the FHIR Vital Signs Profile, 4.0.0+ based on the US Core Vital Signs Profile</t>
         </is>
@@ -1083,7 +1117,8 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>3.1.1* based on the FHIR Vital Signs Profile, 4.0.0+ based on the US Core Vital Signs Profile</t>
         </is>
@@ -1106,7 +1141,8 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>3.1.1* based on the FHIR Vital Signs Profile, 4.0.0+ based on the US Core Vital Signs Profile</t>
         </is>
@@ -1130,6 +1166,7 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1149,6 +1186,7 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1168,6 +1206,7 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1187,6 +1226,7 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1206,6 +1246,7 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1225,6 +1266,7 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1244,6 +1286,7 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1262,7 +1305,8 @@
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>After version 7.0.0 this extension is no longer a USCDI requirement.</t>
         </is>
@@ -1284,12 +1328,13 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Superseded by US Core Simple Observation Profile in version 6.0.0</t>
         </is>
@@ -1311,12 +1356,13 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Superseded by US Core Observation Screening Assessment Profile in version 6.0.0</t>
         </is>
@@ -1338,12 +1384,13 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Superseded by US Core Observation Screening Assessment Profile in version 6.0.0</t>
         </is>
@@ -1365,12 +1412,13 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Superseded by US Core Observation Clinical Result Profile in version 6.0.0</t>
         </is>
@@ -1392,12 +1440,13 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Superseded by US Core Observation Clinical Result Profile in version 6.0.0</t>
         </is>
@@ -1421,6 +1470,7 @@
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1440,6 +1490,7 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1459,6 +1510,7 @@
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1478,6 +1530,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1497,6 +1550,7 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1516,6 +1570,7 @@
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1535,6 +1590,7 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1553,7 +1609,8 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>Replaces US Core Observation Clinical Test Result Profile and US Core Observation Imaging Result Profile</t>
         </is>
@@ -1576,7 +1633,8 @@
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>Replaces US Core Observation Survey Profile and US Core Observation SDOH Assessment Profile</t>
         </is>
@@ -1600,6 +1658,7 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1618,7 +1677,8 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>Replaces US Core Observation Social History Profile</t>
         </is>
@@ -1642,6 +1702,7 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1661,6 +1722,7 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1680,6 +1742,7 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1699,6 +1762,7 @@
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1718,6 +1782,7 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1737,6 +1802,7 @@
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1748,6 +1814,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1766,7 +1833,8 @@
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
         <is>
           <t>After version 6.0.0 this extension is no longer a USCDI requirement.</t>
         </is>
@@ -1790,6 +1858,7 @@
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1809,6 +1878,7 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1828,6 +1898,7 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1847,6 +1918,7 @@
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1865,7 +1937,8 @@
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
         <is>
           <t>After version 7.0.0 this extension is no longer a USCDI requirement and has been deprecated.</t>
         </is>
@@ -1889,6 +1962,7 @@
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1908,6 +1982,7 @@
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1926,7 +2001,8 @@
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
         <is>
           <t>This extension is only used on US Core Profile StructureDefinition elements</t>
         </is>
@@ -1940,20 +2016,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>US Core Sex Extension</t>
+          <t>US Core Individual Sex Extension</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>6.1.0</t>
+          <t>8.0.1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Substantively redefined in version 8.0.0</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1973,6 +2046,7 @@
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1992,6 +2066,7 @@
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2011,19 +2086,49 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>US Core Sex Extension</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>6.1.0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.0.1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Superseded by US Core Individual Sex Extension in version 8.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
         <is>
           <t>\* 3.1.1  *or prior* version of US Core</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input/images/tables/dstu2-r4-table.xlsx
+++ b/input/images/tables/dstu2-r4-table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dstu2-r4-table.csv" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dstu2-r4-table.csv" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -438,12 +438,27 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Version Deprecated</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Version Retired</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Notes</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>current_fmm</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>proposed_fmm</t>
         </is>
       </c>
     </row>
@@ -465,6 +480,13 @@
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,10 +505,17 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Type changed from CarePlan in DSTU2 to CareTeam in R4</t>
         </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -507,6 +536,13 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -524,15 +560,22 @@
           <t>3.1.1*</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>In version 5.0.0 split US Core Condition Profilee into US Core Condition Encounter Diagnosis Profile and US Core Condition Problems and Health Concerns Profile</t>
         </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +595,17 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>see above</t>
         </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -575,10 +625,17 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>see above</t>
         </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -589,7 +646,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>US Core Implantable Device Profile</t>
+          <t>US Core Device Profile</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -599,6 +656,17 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>in version 9.0.0 removed the term "implantable" form the official ( canonical ) URL,  name,  and title.</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -618,6 +686,13 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -637,6 +712,13 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -656,6 +738,13 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -675,6 +764,13 @@
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -694,6 +790,13 @@
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -713,6 +816,13 @@
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -727,10 +837,17 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>US Core MedicationStatement Profile not defined in 3.1.1*</t>
         </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +867,17 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>In Version 6.0.0 derived from US Core Observation Clinical Test Result Profile</t>
         </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -774,6 +898,13 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -793,6 +924,13 @@
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -812,6 +950,13 @@
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -830,10 +975,17 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -853,10 +1005,17 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -876,10 +1035,17 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -899,10 +1065,17 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -922,10 +1095,17 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -945,10 +1125,17 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -968,10 +1155,17 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -991,10 +1185,17 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1014,10 +1215,17 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Previous to version 4.0.0, referenced the FHIR Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1037,10 +1245,17 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>3.1.1* based on the FHIR Vital Signs Profile, 4.0.0+ based on the US Core Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1060,10 +1275,17 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>3.1.1* based on the FHIR Vital Signs Profile, 4.0.0+ based on the US Core Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1083,10 +1305,17 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>3.1.1* based on the FHIR Vital Signs Profile, 4.0.0+ based on the US Core Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1106,10 +1335,17 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>3.1.1* based on the FHIR Vital Signs Profile, 4.0.0+ based on the US Core Vital Signs Profile</t>
         </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1130,6 +1366,13 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1149,6 +1392,13 @@
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1168,6 +1418,13 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1187,6 +1444,13 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1206,6 +1470,13 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1225,6 +1496,13 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1244,6 +1522,13 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1262,10 +1547,17 @@
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>After version 7.0.0 this extension is no longer a USCDI requirement.</t>
         </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1284,14 +1576,23 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Superseded by US Core Simple Observation Profile in version 6.0.0</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -1311,14 +1612,23 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Superseded by US Core Observation Screening Assessment Profile in version 6.0.0</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -1338,14 +1648,23 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Superseded by US Core Observation Screening Assessment Profile in version 6.0.0</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -1365,14 +1684,23 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Superseded by US Core Observation Clinical Result Profile in version 6.0.0</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -1392,14 +1720,23 @@
           <t>5.0.0</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>6.0.0</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Superseded by US Core Observation Clinical Result Profile in version 6.0.0</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
     </row>
@@ -1421,6 +1758,13 @@
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1440,6 +1784,13 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1459,6 +1810,13 @@
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1478,6 +1836,13 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1497,6 +1862,13 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1516,6 +1888,13 @@
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1535,6 +1914,13 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1553,10 +1939,17 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>Replaces US Core Observation Clinical Test Result Profile and US Core Observation Imaging Result Profile</t>
         </is>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1576,10 +1969,17 @@
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>Replaces US Core Observation Survey Profile and US Core Observation SDOH Assessment Profile</t>
         </is>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1600,6 +2000,13 @@
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1618,10 +2025,17 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>Replaces US Core Observation Social History Profile</t>
         </is>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -1642,6 +2056,13 @@
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1661,6 +2082,13 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1680,6 +2108,13 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1699,6 +2134,13 @@
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1718,6 +2160,13 @@
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1737,69 +2186,89 @@
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>**Extensions**</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>US Core FamilyMemberHistory Profile</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>9.0.0</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sex of patient assigned at birth</t>
+          <t xml:space="preserve">     -</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>US Core Birth Sex Extension</t>
+          <t>US Core PMO ServiceRequest Profile</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3.1.1*</t>
+          <t>9.0.0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>After version 6.0.0 this extension is no longer a USCDI requirement.</t>
-        </is>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Argonaut ethnicity Extension</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>US Core Ethnicity Extension</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>3.1.1*</t>
-        </is>
-      </c>
+          <t>**Extensions**</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Argonaut Race Extension</t>
+          <t>Sex of patient assigned at birth</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>US Core Race Extension</t>
+          <t>US Core Birth Sex Extension</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1809,16 +2278,27 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>After version 6.0.0 this extension is no longer a USCDI requirement.</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">     -</t>
+          <t>Argonaut ethnicity Extension</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>US Core Direct email Extension</t>
+          <t>US Core Ethnicity Extension</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1828,25 +2308,39 @@
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">     -</t>
+          <t>Argonaut Race Extension</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>US Core Extension Questionnaire URI</t>
+          <t>US Core Race Extension</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5.0.0</t>
+          <t>3.1.1*</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1856,19 +2350,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>US Core Gender Identity Extension</t>
+          <t>US Core Direct email Extension</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5.0.0</t>
+          <t>3.1.1*</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>After version 7.0.0 this extension is no longer a USCDI requirement and has been deprecated.</t>
-        </is>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -1879,16 +2376,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>US Core Tribal Affiliation Extension</t>
+          <t>US Core Extension Questionnaire URI</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>6.0.0</t>
+          <t>5.0.0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1898,16 +2402,31 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>US Core Jurisdiction Extension</t>
+          <t>US Core Gender Identity Extension</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>6.0.0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>5.0.0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.0.0</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>After version 7.0.0 this extension is no longer a USCDI requirement and has been deprecated.</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1917,7 +2436,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>US Core USCDI Requirements Extension</t>
+          <t>US Core Tribal Affiliation Extension</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1926,10 +2445,13 @@
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>This extension is only used on US Core Profile StructureDefinition elements</t>
-        </is>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -1940,19 +2462,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>US Core Sex Extension</t>
+          <t>US Core Jurisdiction Extension</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>6.1.0</t>
+          <t>6.0.0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Substantively redefined in version 8.0.0</t>
-        </is>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -1963,35 +2488,53 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>US Core Medication Adherence Extension</t>
+          <t>US Core USCDI Requirement Extension</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7.0.0</t>
+          <t>6.0.0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>This extension is only used on US Core Profile StructureDefinition elements</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">     </t>
+          <t xml:space="preserve">     -</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>US Core Authentication Time Extension</t>
+          <t>US Core Medication Adherence Extension</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>7.0.0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2001,29 +2544,163 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>US Core Authentication Time Extension</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>8.0.0</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9.0.0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Superseded  in version 9.0.0 by the Cross-version Extension for R5.DocumentReference.attester for use in FHIR R4.</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>US Core Interpreter Needed Extension</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>8.0.0</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>US Core Sex Extension</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6.1.0</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.0.1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Superseded  in version 8.0.1 by the US Core Individual Sex Extension.</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>US Core Individual Sex Extension</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>8.0.1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     -</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>US Core FamilyMemberHistory Recorder Extension</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>9.0.0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
         <is>
           <t>\* 3.1.1  *or prior* version of US Core</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>